--- a/main/ValueSet-ConsentStatusRefusalFullValuesVS.xlsx
+++ b/main/ValueSet-ConsentStatusRefusalFullValuesVS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -65,13 +65,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald (https://www.ths-greifswald.de/)</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald (https://www.ths-greifswald.de/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>consent states - subset REFUSAL documents</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -395,28 +398,30 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -438,7 +443,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -446,25 +451,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
@@ -478,10 +483,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +504,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
@@ -507,10 +512,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -528,40 +533,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>12</v>
@@ -572,17 +577,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>12</v>
@@ -593,17 +598,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>12</v>
@@ -614,17 +619,17 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>12</v>
